--- a/Analysis/Figure1/output/Figure1_data.xlsx
+++ b/Analysis/Figure1/output/Figure1_data.xlsx
@@ -18374,7 +18374,7 @@
         <v>1345</v>
       </c>
       <c r="D2" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E2" t="s">
         <v>1105</v>
@@ -18409,7 +18409,7 @@
         <v>1345</v>
       </c>
       <c r="D3" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E3" t="s">
         <v>1105</v>
@@ -18444,7 +18444,7 @@
         <v>1345</v>
       </c>
       <c r="D4" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E4" t="s">
         <v>1105</v>
@@ -18479,7 +18479,7 @@
         <v>1345</v>
       </c>
       <c r="D5" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E5" t="s">
         <v>1105</v>
@@ -32905,7 +32905,7 @@
         <v>1345</v>
       </c>
       <c r="D2" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E2" t="s">
         <v>1105</v>
@@ -32940,7 +32940,7 @@
         <v>1345</v>
       </c>
       <c r="D3" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E3" t="s">
         <v>1105</v>
@@ -32975,7 +32975,7 @@
         <v>1345</v>
       </c>
       <c r="D4" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E4" t="s">
         <v>1105</v>
@@ -33010,7 +33010,7 @@
         <v>1345</v>
       </c>
       <c r="D5" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E5" t="s">
         <v>1105</v>
@@ -33755,7 +33755,7 @@
         <v>1345</v>
       </c>
       <c r="D2" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E2" t="s">
         <v>1105</v>
@@ -33790,7 +33790,7 @@
         <v>1345</v>
       </c>
       <c r="D3" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E3" t="s">
         <v>1105</v>
@@ -33825,7 +33825,7 @@
         <v>1345</v>
       </c>
       <c r="D4" t="s">
-        <v>1358</v>
+        <v>1104</v>
       </c>
       <c r="E4" t="s">
         <v>1105</v>
